--- a/biology/Médecine/Test_de_Kleihauer/Test_de_Kleihauer.xlsx
+++ b/biology/Médecine/Test_de_Kleihauer/Test_de_Kleihauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois appelé dans certains pays test de Kleihauer-Betke, cet examen de laboratoire permet de mettre en évidence la présence d'hématies fœtales parmi des hématies adultes maternelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut décrit en 1957 par les allemands Enno Kleihauer et Klaus Betke[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut décrit en 1957 par les allemands Enno Kleihauer et Klaus Betke.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce test est basé sur la résistance de l'hémoglobine fœtale (Hb F) à une solution acide. L'hémoglobine adulte (Hb A), moins résistante, est éluée des hématies adultes dont il ne reste que des stromas vides à la lecture au microscope, alors que les hématies fœtales restent colorées.
 Le taux des hématies fœtales (qui contiennent de l'hémoglobine F) par rapport aux hématies adultes maternelles (qui contiennent de l'hémoglobine A) permet d'estimer le volume de sang fœtal présent dans la circulation maternelle. Ce taux est donné en nombre d'hématies fœtales pour 10 000 hématies adultes (HF/10000 HA).
